--- a/uploads/PB - Pranta Biswas.xlsx
+++ b/uploads/PB - Pranta Biswas.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="46">
   <si>
     <t>United International University</t>
   </si>
@@ -82,19 +82,19 @@
     <t>SAT</t>
   </si>
   <si>
+    <t>CnH</t>
+  </si>
+  <si>
     <t>CSE 1115 (S): 306</t>
   </si>
   <si>
     <t>CSE 1111 (N): 1031</t>
   </si>
   <si>
-    <t>EEE 2123 (E): 711</t>
+    <t>OH</t>
   </si>
   <si>
     <t>SUN</t>
-  </si>
-  <si>
-    <t>DS 1116 (BB): 926</t>
   </si>
   <si>
     <t>CSE 2218 (E): 528</t>
@@ -237,7 +237,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -262,9 +262,15 @@
     </xf>
     <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left"/>
     </xf>
@@ -650,34 +656,42 @@
       <c r="A14" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="9"/>
+      <c r="B14" s="9" t="s">
+        <v>23</v>
+      </c>
       <c r="C14" s="8"/>
       <c r="D14" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G14" s="8"/>
-      <c r="H14" s="7" t="s">
-        <v>25</v>
+      <c r="H14" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="I14" s="8"/>
-      <c r="J14" s="9"/>
+      <c r="J14" s="9" t="s">
+        <v>23</v>
+      </c>
       <c r="K14" s="8"/>
-      <c r="L14" s="9"/>
+      <c r="L14" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="M14" s="8"/>
     </row>
     <row r="15">
       <c r="A15" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
+      <c r="B15" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="9" t="s">
+        <v>23</v>
+      </c>
       <c r="E15" s="8"/>
       <c r="F15" s="7" t="s">
         <v>28</v>
@@ -685,49 +699,59 @@
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="8"/>
-      <c r="J15" s="9"/>
+      <c r="J15" s="9" t="s">
+        <v>23</v>
+      </c>
       <c r="K15" s="8"/>
-      <c r="L15" s="9"/>
+      <c r="L15" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="M15" s="8"/>
     </row>
     <row r="16">
       <c r="A16" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="9"/>
+      <c r="B16" s="11"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="9"/>
+      <c r="D16" s="11"/>
       <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
+      <c r="F16" s="11"/>
       <c r="G16" s="8"/>
-      <c r="H16" s="9"/>
+      <c r="H16" s="11"/>
       <c r="I16" s="8"/>
-      <c r="J16" s="9"/>
+      <c r="J16" s="11"/>
       <c r="K16" s="8"/>
-      <c r="L16" s="9"/>
+      <c r="L16" s="11"/>
       <c r="M16" s="8"/>
     </row>
     <row r="17">
       <c r="A17" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="9"/>
+      <c r="B17" s="9" t="s">
+        <v>23</v>
+      </c>
       <c r="C17" s="8"/>
       <c r="D17" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G17" s="8"/>
-      <c r="H17" s="7" t="s">
-        <v>25</v>
+      <c r="H17" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="I17" s="8"/>
-      <c r="J17" s="9"/>
+      <c r="J17" s="9" t="s">
+        <v>23</v>
+      </c>
       <c r="K17" s="8"/>
-      <c r="L17" s="9"/>
+      <c r="L17" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="M17" s="8"/>
     </row>
     <row r="18">
@@ -746,9 +770,11 @@
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
       <c r="I18" s="8"/>
-      <c r="J18" s="9"/>
+      <c r="J18" s="9" t="s">
+        <v>23</v>
+      </c>
       <c r="K18" s="8"/>
-      <c r="L18" s="9"/>
+      <c r="L18" s="11"/>
       <c r="M18" s="8"/>
     </row>
     <row r="19">
@@ -813,15 +839,15 @@
       <c r="A23" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="9"/>
+      <c r="B23" s="11"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
       <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
+      <c r="F23" s="11"/>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
       <c r="I23" s="8"/>
-      <c r="J23" s="9"/>
+      <c r="J23" s="11"/>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
       <c r="M23" s="8"/>
@@ -830,15 +856,15 @@
       <c r="A24" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="9"/>
+      <c r="B24" s="11"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
       <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
+      <c r="F24" s="11"/>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
       <c r="I24" s="8"/>
-      <c r="J24" s="9"/>
+      <c r="J24" s="11"/>
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
       <c r="M24" s="8"/>
@@ -877,30 +903,30 @@
       <c r="A27" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="11">
-        <v>18.67</v>
+      <c r="C27" s="12">
+        <v>13.33</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F27" s="13">
         <f>4/3 * COUNTIF($B$14:$M$18, "CnH*") + 2.5 * COUNTIF($B$23:$M$24, "CnH*")</f>
-        <v>0</v>
+        <v>13.33333333</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I27" s="11">
+      <c r="I27" s="13">
         <f>4/3 * COUNTIF($B$14:$M$18, "OH*") + 2.5 * COUNTIF($B$23:$M$24, "OH*")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J27" s="5"/>
       <c r="K27" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="M27" s="11">
+      <c r="M27" s="13">
         <f>C27+F27+I27</f>
-        <v>18.67</v>
+        <v>30.66333333</v>
       </c>
     </row>
     <row r="28">
@@ -963,14 +989,14 @@
       <c r="M32" s="2"/>
     </row>
     <row r="33">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="14" t="s">
         <v>43</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
-      <c r="H33" s="12" t="s">
+      <c r="H33" s="14" t="s">
         <v>44</v>
       </c>
       <c r="K33" s="2"/>
@@ -978,7 +1004,7 @@
       <c r="M33" s="2"/>
     </row>
     <row r="34">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="14" t="s">
         <v>45</v>
       </c>
       <c r="B34" s="2"/>
@@ -987,7 +1013,7 @@
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
-      <c r="H34" s="12" t="s">
+      <c r="H34" s="14" t="s">
         <v>45</v>
       </c>
       <c r="I34" s="2"/>
@@ -997,34 +1023,36 @@
       <c r="M34" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="67">
+  <mergeCells count="68">
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
     <mergeCell ref="F18:I18"/>
     <mergeCell ref="J18:K18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
     <mergeCell ref="L18:M18"/>
-    <mergeCell ref="B18:E18"/>
     <mergeCell ref="A21:M21"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="F22:I22"/>
     <mergeCell ref="J22:M22"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G27:H27"/>
     <mergeCell ref="A30:C32"/>
     <mergeCell ref="H30:J32"/>
     <mergeCell ref="A33:C33"/>
     <mergeCell ref="H33:J33"/>
     <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:M23"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="F24:I24"/>
     <mergeCell ref="J24:M24"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="A27:B27"/>
     <mergeCell ref="K27:L27"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
@@ -1049,22 +1077,21 @@
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="L13:M13"/>
-    <mergeCell ref="F15:I15"/>
     <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
